--- a/Financial Control Dashboard/planilha-gastos-2021 - PowerBI.xlsx
+++ b/Financial Control Dashboard/planilha-gastos-2021 - PowerBI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\GitHub\Dashboards-Power-Bi\Financial Control Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA11AF8E-0AA2-444E-B1D4-ABE1CC27F126}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5F90FD-26A7-4CDD-A8E2-B0BC8E3D2F01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{31335F1A-1D20-45AD-9FCE-7EA083900330}"/>
   </bookViews>
@@ -1713,6 +1713,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1743,12 +1788,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="11" fillId="11" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1772,45 +1811,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3332,6 +3332,127 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>942974</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CaixaDeTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C478A4C9-7514-45DE-9DB3-7F793F9AEFAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12144374" y="5391150"/>
+          <a:ext cx="2181225" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Feito por:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Guilherme Elias</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>https://github.com/guilhermehge</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>https://www.linkedin.com/in/guilhermehge/</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3635,7 +3756,7 @@
   <dimension ref="A1:N144"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3658,19 +3779,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="D1" s="71" t="s">
+      <c r="B1" s="45"/>
+      <c r="D1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="73"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="55"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -3679,13 +3800,13 @@
       <c r="B2" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="76"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="58"/>
     </row>
     <row r="3" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
@@ -3694,15 +3815,15 @@
       <c r="B3" s="18">
         <v>2021</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="70"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="52"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" s="25" t="s">
@@ -3728,10 +3849,10 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="67"/>
+      <c r="B5" s="47"/>
       <c r="D5" s="29" t="str">
         <f>Cat_Gastos!A2</f>
         <v>Lanches</v>
@@ -3762,10 +3883,10 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="55"/>
+      <c r="A6" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="49"/>
       <c r="D6" s="29" t="str">
         <f>Cat_Gastos!A3</f>
         <v>Compras</v>
@@ -3977,10 +4098,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="49"/>
       <c r="D12" s="29" t="str">
         <f>Cat_Gastos!A9</f>
         <v>Lazer</v>
@@ -4189,8 +4310,8 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="63"/>
-      <c r="B18" s="63"/>
+      <c r="A18" s="76"/>
+      <c r="B18" s="76"/>
       <c r="D18" s="7" t="s">
         <v>15</v>
       </c>
@@ -4221,16 +4342,16 @@
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D20" s="61" t="s">
+      <c r="D20" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="62"/>
-      <c r="G20" s="58" t="s">
+      <c r="E20" s="75"/>
+      <c r="G20" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="60"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="73"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D21" s="14" t="s">
@@ -4261,19 +4382,19 @@
         <f>SUMIFS(Gastos!$G:$G,Gastos!$F:$F,Resumo!$D22,Gastos!$B:$B,Resumo!$B$2,Gastos!$C:$C,Resumo!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="56">
+      <c r="G22" s="69">
         <f>SUMIFS(Remuneração!$E:$E,Remuneração!$A:$A,Resumo!$B$2,Remuneração!$B:$B,Resumo!$B$3,Remuneração!$F:$F,Resumo!G21)</f>
         <v>2000</v>
       </c>
-      <c r="H22" s="56">
+      <c r="H22" s="69">
         <f>SUMIFS(Remuneração!$E:$E,Remuneração!$A:$A,Resumo!$B$2,Remuneração!$B:$B,Resumo!$B$3,Remuneração!$F:$F,Resumo!H21)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="56">
+      <c r="I22" s="69">
         <f>SUMIFS(Remuneração!$E:$E,Remuneração!$A:$A,Resumo!$B$2,Remuneração!$B:$B,Resumo!$B$3,Remuneração!$F:$F,Resumo!I21)</f>
         <v>0</v>
       </c>
-      <c r="J22" s="56">
+      <c r="J22" s="69">
         <f>SUMIFS(Remuneração!$E:$E,Remuneração!$A:$A,Resumo!$B$2,Remuneração!$B:$B,Resumo!$B$3,Remuneração!$F:$F,J21)</f>
         <v>3050</v>
       </c>
@@ -4286,10 +4407,10 @@
         <f>SUMIFS(Gastos!$G:$G,Gastos!$F:$F,Resumo!$D23,Gastos!$B:$B,Resumo!$B$2,Gastos!$C:$C,Resumo!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D24" s="14" t="s">
@@ -4312,12 +4433,12 @@
         <f>SUMIFS(Gastos!$G:$G,Gastos!$F:$F,Resumo!$D25,Gastos!$B:$B,Resumo!$B$2,Gastos!$C:$C,Resumo!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="50" t="s">
+      <c r="G25" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="52"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="67"/>
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="40"/>
@@ -4328,13 +4449,13 @@
         <f>SUMIFS(Gastos!$G:$G,Gastos!$F:$F,Resumo!$D26,Gastos!$B:$B,Resumo!$B$2,Gastos!$C:$C,Resumo!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="G26" s="44">
+      <c r="G26" s="59">
         <f>$G$22+$H$22+$I$22+$J$22-$I$18-$E$27</f>
         <v>174</v>
       </c>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="46"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="61"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D27" s="7" t="s">
@@ -4344,19 +4465,19 @@
         <f>SUM(E21:E26)</f>
         <v>1000</v>
       </c>
-      <c r="G27" s="47"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="49"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="64"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E29" s="53" t="s">
+      <c r="E29" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="68"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E30" s="35" t="s">
@@ -6718,11 +6839,6 @@
   </sheetData>
   <autoFilter ref="E30:I129" xr:uid="{0DAB5149-1206-464A-8192-8B6785E25E78}"/>
   <mergeCells count="16">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="D1:J2"/>
     <mergeCell ref="G26:J27"/>
     <mergeCell ref="G25:J25"/>
     <mergeCell ref="E29:I29"/>
@@ -6734,6 +6850,11 @@
     <mergeCell ref="G20:J20"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="D1:J2"/>
   </mergeCells>
   <conditionalFormatting sqref="G26">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
